--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F25A74C-489F-42D1-8BE3-1EB089562C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45199F63-D8FF-4CAA-9A59-D07D7FA73C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
     <sheet name="Channel Products" sheetId="3" r:id="rId2"/>
-    <sheet name="Slider Options" sheetId="12" r:id="rId3"/>
-    <sheet name="Hotspot Products" sheetId="13" r:id="rId4"/>
+    <sheet name="Hotspot Products" sheetId="13" r:id="rId3"/>
+    <sheet name="Slider Options" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$D$1</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5637" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6236" uniqueCount="229">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -676,12 +676,45 @@
   <si>
     <t>Hotspot Type</t>
   </si>
+  <si>
+    <t>2 Shelfs</t>
+  </si>
+  <si>
+    <t>3 Shelfs</t>
+  </si>
+  <si>
+    <t>4 Shelfs</t>
+  </si>
+  <si>
+    <t>LHW Pure White 225ml</t>
+  </si>
+  <si>
+    <t>5 Shelfs</t>
+  </si>
+  <si>
+    <t>Cosmetics (2 Shelfs)</t>
+  </si>
+  <si>
+    <t>Pharmacy 4 Shelfs</t>
+  </si>
+  <si>
+    <t>Small I (2 Shelfs)</t>
+  </si>
+  <si>
+    <t>Small II (2 Shelfs)</t>
+  </si>
+  <si>
+    <t>Facing</t>
+  </si>
+  <si>
+    <t>Overwrite Facing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,8 +746,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +930,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF17BF8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -946,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -991,6 +1038,13 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,12 +1053,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF17BF8B"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF996633"/>
       <color rgb="FFF75A3B"/>
       <color rgb="FFCA6008"/>
-      <color rgb="FF17BF8B"/>
       <color rgb="FF22EA7C"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF660066"/>
@@ -1347,7 +1401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29494,6 +29548,4228 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D17D-83AB-434D-9E9D-17B67B28C1E7}">
+  <dimension ref="A1:D300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="38" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="26">
+        <v>16</v>
+      </c>
+      <c r="D17" s="26">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="26">
+        <v>17</v>
+      </c>
+      <c r="D18" s="26">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="26">
+        <v>18</v>
+      </c>
+      <c r="D19" s="26">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="26">
+        <v>19</v>
+      </c>
+      <c r="D20" s="26">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="26">
+        <v>20</v>
+      </c>
+      <c r="D21" s="26">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="26">
+        <v>21</v>
+      </c>
+      <c r="D22" s="26">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="26">
+        <v>22</v>
+      </c>
+      <c r="D23" s="26">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="26">
+        <v>23</v>
+      </c>
+      <c r="D24" s="26">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="26">
+        <v>24</v>
+      </c>
+      <c r="D25" s="26">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="26">
+        <v>25</v>
+      </c>
+      <c r="D26" s="26">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="26">
+        <v>26</v>
+      </c>
+      <c r="D27" s="26">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="26">
+        <v>27</v>
+      </c>
+      <c r="D28" s="26">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="26">
+        <v>28</v>
+      </c>
+      <c r="D29" s="26">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="26">
+        <v>29</v>
+      </c>
+      <c r="D30" s="26">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="26">
+        <v>30</v>
+      </c>
+      <c r="D31" s="26">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="26">
+        <v>31</v>
+      </c>
+      <c r="D32" s="26">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="26">
+        <v>32</v>
+      </c>
+      <c r="D33" s="26">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="26">
+        <v>33</v>
+      </c>
+      <c r="D34" s="26">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="26">
+        <v>34</v>
+      </c>
+      <c r="D35" s="26">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="26">
+        <v>35</v>
+      </c>
+      <c r="D36" s="26">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="26">
+        <v>36</v>
+      </c>
+      <c r="D37" s="26">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="6">
+        <v>37</v>
+      </c>
+      <c r="D38" s="6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6">
+        <v>38</v>
+      </c>
+      <c r="D39" s="6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6">
+        <v>39</v>
+      </c>
+      <c r="D40" s="6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6">
+        <v>41</v>
+      </c>
+      <c r="D42" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="6">
+        <v>42</v>
+      </c>
+      <c r="D43" s="6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="6">
+        <v>43</v>
+      </c>
+      <c r="D44" s="6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44</v>
+      </c>
+      <c r="D45" s="6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="6">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6">
+        <v>46</v>
+      </c>
+      <c r="D47" s="6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="6">
+        <v>47</v>
+      </c>
+      <c r="D48" s="6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="6">
+        <v>48</v>
+      </c>
+      <c r="D49" s="6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="6">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="6">
+        <v>50</v>
+      </c>
+      <c r="D51" s="6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6">
+        <v>51</v>
+      </c>
+      <c r="D52" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="6">
+        <v>52</v>
+      </c>
+      <c r="D53" s="6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="6">
+        <v>53</v>
+      </c>
+      <c r="D54" s="6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="6">
+        <v>54</v>
+      </c>
+      <c r="D55" s="6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="6">
+        <v>55</v>
+      </c>
+      <c r="D56" s="6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="6">
+        <v>56</v>
+      </c>
+      <c r="D57" s="6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="6">
+        <v>57</v>
+      </c>
+      <c r="D58" s="6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="6">
+        <v>58</v>
+      </c>
+      <c r="D59" s="6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="6">
+        <v>59</v>
+      </c>
+      <c r="D60" s="6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="6">
+        <v>60</v>
+      </c>
+      <c r="D61" s="6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="6">
+        <v>61</v>
+      </c>
+      <c r="D62" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="6">
+        <v>62</v>
+      </c>
+      <c r="D63" s="6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="6">
+        <v>63</v>
+      </c>
+      <c r="D64" s="6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="6">
+        <v>64</v>
+      </c>
+      <c r="D65" s="6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="6">
+        <v>65</v>
+      </c>
+      <c r="D66" s="6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="6">
+        <v>66</v>
+      </c>
+      <c r="D67" s="6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="6">
+        <v>67</v>
+      </c>
+      <c r="D68" s="6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="6">
+        <v>68</v>
+      </c>
+      <c r="D69" s="6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="6">
+        <v>69</v>
+      </c>
+      <c r="D70" s="6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="6">
+        <v>70</v>
+      </c>
+      <c r="D71" s="6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="6">
+        <v>71</v>
+      </c>
+      <c r="D72" s="6">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="6">
+        <v>72</v>
+      </c>
+      <c r="D73" s="6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="6">
+        <v>73</v>
+      </c>
+      <c r="D74" s="6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="6">
+        <v>74</v>
+      </c>
+      <c r="D75" s="6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="25">
+        <v>75</v>
+      </c>
+      <c r="D76" s="25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="25">
+        <v>76</v>
+      </c>
+      <c r="D77" s="25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="25">
+        <v>77</v>
+      </c>
+      <c r="D78" s="25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="25">
+        <v>78</v>
+      </c>
+      <c r="D79" s="25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="25">
+        <v>79</v>
+      </c>
+      <c r="D80" s="25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="25">
+        <v>80</v>
+      </c>
+      <c r="D81" s="25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="25">
+        <v>81</v>
+      </c>
+      <c r="D82" s="25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="25">
+        <v>82</v>
+      </c>
+      <c r="D83" s="25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="25">
+        <v>83</v>
+      </c>
+      <c r="D84" s="25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="25">
+        <v>84</v>
+      </c>
+      <c r="D85" s="25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="25">
+        <v>85</v>
+      </c>
+      <c r="D86" s="25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="25">
+        <v>86</v>
+      </c>
+      <c r="D87" s="25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="25">
+        <v>87</v>
+      </c>
+      <c r="D88" s="25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="25">
+        <v>88</v>
+      </c>
+      <c r="D89" s="25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="25">
+        <v>89</v>
+      </c>
+      <c r="D90" s="25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="25">
+        <v>90</v>
+      </c>
+      <c r="D91" s="25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="25">
+        <v>91</v>
+      </c>
+      <c r="D92" s="25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="25">
+        <v>92</v>
+      </c>
+      <c r="D93" s="25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="25">
+        <v>93</v>
+      </c>
+      <c r="D94" s="25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="25">
+        <v>94</v>
+      </c>
+      <c r="D95" s="25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="25">
+        <v>95</v>
+      </c>
+      <c r="D96" s="25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="25">
+        <v>96</v>
+      </c>
+      <c r="D97" s="25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="25">
+        <v>97</v>
+      </c>
+      <c r="D98" s="25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="25">
+        <v>98</v>
+      </c>
+      <c r="D99" s="25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="25">
+        <v>99</v>
+      </c>
+      <c r="D100" s="25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="25">
+        <v>100</v>
+      </c>
+      <c r="D101" s="25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="25">
+        <v>101</v>
+      </c>
+      <c r="D102" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="25">
+        <v>102</v>
+      </c>
+      <c r="D103" s="25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="25">
+        <v>103</v>
+      </c>
+      <c r="D104" s="25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="25">
+        <v>104</v>
+      </c>
+      <c r="D105" s="25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="25">
+        <v>105</v>
+      </c>
+      <c r="D106" s="25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="25">
+        <v>106</v>
+      </c>
+      <c r="D107" s="25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="25">
+        <v>107</v>
+      </c>
+      <c r="D108" s="25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="25">
+        <v>108</v>
+      </c>
+      <c r="D109" s="25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="25">
+        <v>109</v>
+      </c>
+      <c r="D110" s="25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="25">
+        <v>110</v>
+      </c>
+      <c r="D111" s="25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="25">
+        <v>111</v>
+      </c>
+      <c r="D112" s="25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="25">
+        <v>112</v>
+      </c>
+      <c r="D113" s="25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="25">
+        <v>113</v>
+      </c>
+      <c r="D114" s="25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="25">
+        <v>114</v>
+      </c>
+      <c r="D115" s="25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="25">
+        <v>115</v>
+      </c>
+      <c r="D116" s="25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="25">
+        <v>116</v>
+      </c>
+      <c r="D117" s="25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="2">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="2">
+        <v>118</v>
+      </c>
+      <c r="D119" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="2">
+        <v>119</v>
+      </c>
+      <c r="D120" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="2">
+        <v>120</v>
+      </c>
+      <c r="D121" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="2">
+        <v>121</v>
+      </c>
+      <c r="D122" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="2">
+        <v>122</v>
+      </c>
+      <c r="D123" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="2">
+        <v>123</v>
+      </c>
+      <c r="D124" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="2">
+        <v>124</v>
+      </c>
+      <c r="D125" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" s="2">
+        <v>125</v>
+      </c>
+      <c r="D126" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="2">
+        <v>126</v>
+      </c>
+      <c r="D127" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="5">
+        <v>127</v>
+      </c>
+      <c r="D128" s="5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="5">
+        <v>128</v>
+      </c>
+      <c r="D129" s="5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="5">
+        <v>129</v>
+      </c>
+      <c r="D130" s="5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="5">
+        <v>130</v>
+      </c>
+      <c r="D131" s="5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="5">
+        <v>131</v>
+      </c>
+      <c r="D132" s="5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" s="5">
+        <v>132</v>
+      </c>
+      <c r="D133" s="5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="5">
+        <v>133</v>
+      </c>
+      <c r="D134" s="5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="5">
+        <v>134</v>
+      </c>
+      <c r="D135" s="5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" s="5">
+        <v>135</v>
+      </c>
+      <c r="D136" s="5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="5">
+        <v>136</v>
+      </c>
+      <c r="D137" s="5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="5">
+        <v>137</v>
+      </c>
+      <c r="D138" s="5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="5">
+        <v>138</v>
+      </c>
+      <c r="D139" s="5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="5">
+        <v>139</v>
+      </c>
+      <c r="D140" s="5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="5">
+        <v>140</v>
+      </c>
+      <c r="D141" s="5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="5">
+        <v>141</v>
+      </c>
+      <c r="D142" s="5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="5">
+        <v>142</v>
+      </c>
+      <c r="D143" s="5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" s="5">
+        <v>143</v>
+      </c>
+      <c r="D144" s="5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="5">
+        <v>144</v>
+      </c>
+      <c r="D145" s="5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="5">
+        <v>145</v>
+      </c>
+      <c r="D146" s="5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C147" s="5">
+        <v>146</v>
+      </c>
+      <c r="D147" s="5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C148" s="5">
+        <v>147</v>
+      </c>
+      <c r="D148" s="5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" s="5">
+        <v>148</v>
+      </c>
+      <c r="D149" s="5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" s="5">
+        <v>149</v>
+      </c>
+      <c r="D150" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C151" s="5">
+        <v>150</v>
+      </c>
+      <c r="D151" s="5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C152" s="5">
+        <v>151</v>
+      </c>
+      <c r="D152" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C153" s="5">
+        <v>152</v>
+      </c>
+      <c r="D153" s="5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C154" s="5">
+        <v>153</v>
+      </c>
+      <c r="D154" s="5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C155" s="5">
+        <v>154</v>
+      </c>
+      <c r="D155" s="5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="5">
+        <v>155</v>
+      </c>
+      <c r="D156" s="5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="40">
+        <v>156</v>
+      </c>
+      <c r="D157" s="40">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="40">
+        <v>157</v>
+      </c>
+      <c r="D158" s="40">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="40">
+        <v>158</v>
+      </c>
+      <c r="D159" s="40">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="40">
+        <v>159</v>
+      </c>
+      <c r="D160" s="40">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="40">
+        <v>160</v>
+      </c>
+      <c r="D161" s="40">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="40">
+        <v>161</v>
+      </c>
+      <c r="D162" s="40">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" s="40">
+        <v>162</v>
+      </c>
+      <c r="D163" s="40">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="40">
+        <v>163</v>
+      </c>
+      <c r="D164" s="40">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B165" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="40">
+        <v>164</v>
+      </c>
+      <c r="D165" s="40">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B166" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" s="40">
+        <v>165</v>
+      </c>
+      <c r="D166" s="40">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C167" s="40">
+        <v>166</v>
+      </c>
+      <c r="D167" s="40">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" s="40">
+        <v>167</v>
+      </c>
+      <c r="D168" s="40">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" s="40">
+        <v>168</v>
+      </c>
+      <c r="D169" s="40">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" s="40">
+        <v>169</v>
+      </c>
+      <c r="D170" s="40">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="3">
+        <v>170</v>
+      </c>
+      <c r="D171" s="3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172" s="3">
+        <v>171</v>
+      </c>
+      <c r="D172" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C173" s="3">
+        <v>172</v>
+      </c>
+      <c r="D173" s="3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" s="3">
+        <v>173</v>
+      </c>
+      <c r="D174" s="3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C175" s="3">
+        <v>174</v>
+      </c>
+      <c r="D175" s="3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176" s="3">
+        <v>175</v>
+      </c>
+      <c r="D176" s="3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" s="3">
+        <v>176</v>
+      </c>
+      <c r="D177" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C178" s="3">
+        <v>177</v>
+      </c>
+      <c r="D178" s="3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="3">
+        <v>178</v>
+      </c>
+      <c r="D179" s="3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="3">
+        <v>179</v>
+      </c>
+      <c r="D180" s="3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="3">
+        <v>180</v>
+      </c>
+      <c r="D181" s="3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="3">
+        <v>181</v>
+      </c>
+      <c r="D182" s="3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" s="3">
+        <v>182</v>
+      </c>
+      <c r="D183" s="3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="3">
+        <v>183</v>
+      </c>
+      <c r="D184" s="3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="3">
+        <v>184</v>
+      </c>
+      <c r="D185" s="3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C186" s="3">
+        <v>185</v>
+      </c>
+      <c r="D186" s="3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" s="3">
+        <v>186</v>
+      </c>
+      <c r="D187" s="3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C188" s="3">
+        <v>187</v>
+      </c>
+      <c r="D188" s="3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="3">
+        <v>188</v>
+      </c>
+      <c r="D189" s="3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190" s="3">
+        <v>189</v>
+      </c>
+      <c r="D190" s="3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191" s="3">
+        <v>190</v>
+      </c>
+      <c r="D191" s="3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C192" s="3">
+        <v>191</v>
+      </c>
+      <c r="D192" s="3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="3">
+        <v>192</v>
+      </c>
+      <c r="D193" s="3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="3">
+        <v>193</v>
+      </c>
+      <c r="D194" s="3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="3">
+        <v>194</v>
+      </c>
+      <c r="D195" s="3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="3">
+        <v>195</v>
+      </c>
+      <c r="D196" s="3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" s="3">
+        <v>196</v>
+      </c>
+      <c r="D197" s="3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C198" s="3">
+        <v>197</v>
+      </c>
+      <c r="D198" s="3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C199" s="3">
+        <v>198</v>
+      </c>
+      <c r="D199" s="3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" s="3">
+        <v>199</v>
+      </c>
+      <c r="D200" s="3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C201" s="3">
+        <v>200</v>
+      </c>
+      <c r="D201" s="3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C202" s="3">
+        <v>201</v>
+      </c>
+      <c r="D202" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C203" s="3">
+        <v>202</v>
+      </c>
+      <c r="D203" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C204" s="3">
+        <v>203</v>
+      </c>
+      <c r="D204" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C205" s="3">
+        <v>204</v>
+      </c>
+      <c r="D205" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C206" s="3">
+        <v>205</v>
+      </c>
+      <c r="D206" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C207" s="3">
+        <v>206</v>
+      </c>
+      <c r="D207" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C208" s="3">
+        <v>207</v>
+      </c>
+      <c r="D208" s="3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C209" s="3">
+        <v>208</v>
+      </c>
+      <c r="D209" s="3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C210" s="3">
+        <v>209</v>
+      </c>
+      <c r="D210" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C211" s="3">
+        <v>210</v>
+      </c>
+      <c r="D211" s="3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" s="3">
+        <v>211</v>
+      </c>
+      <c r="D212" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C213" s="3">
+        <v>212</v>
+      </c>
+      <c r="D213" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C214" s="3">
+        <v>213</v>
+      </c>
+      <c r="D214" s="3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C215" s="3">
+        <v>214</v>
+      </c>
+      <c r="D215" s="3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C216" s="3">
+        <v>215</v>
+      </c>
+      <c r="D216" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C217" s="3">
+        <v>216</v>
+      </c>
+      <c r="D217" s="3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C218" s="3">
+        <v>217</v>
+      </c>
+      <c r="D218" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C219" s="3">
+        <v>218</v>
+      </c>
+      <c r="D219" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C220" s="23">
+        <v>219</v>
+      </c>
+      <c r="D220" s="23">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" s="23">
+        <v>220</v>
+      </c>
+      <c r="D221" s="23">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C222" s="23">
+        <v>221</v>
+      </c>
+      <c r="D222" s="23">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="23">
+        <v>222</v>
+      </c>
+      <c r="D223" s="23">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C224" s="23">
+        <v>223</v>
+      </c>
+      <c r="D224" s="23">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" s="23">
+        <v>224</v>
+      </c>
+      <c r="D225" s="23">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" s="23">
+        <v>225</v>
+      </c>
+      <c r="D226" s="23">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B227" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" s="23">
+        <v>226</v>
+      </c>
+      <c r="D227" s="23">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B228" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" s="23">
+        <v>227</v>
+      </c>
+      <c r="D228" s="23">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B229" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229" s="23">
+        <v>228</v>
+      </c>
+      <c r="D229" s="23">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B230" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" s="23">
+        <v>229</v>
+      </c>
+      <c r="D230" s="23">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B231" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C231" s="23">
+        <v>230</v>
+      </c>
+      <c r="D231" s="23">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B232" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C232" s="23">
+        <v>231</v>
+      </c>
+      <c r="D232" s="23">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B233" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C233" s="23">
+        <v>232</v>
+      </c>
+      <c r="D233" s="23">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B234" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C234" s="23">
+        <v>233</v>
+      </c>
+      <c r="D234" s="23">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B235" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" s="23">
+        <v>234</v>
+      </c>
+      <c r="D235" s="23">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B236" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C236" s="23">
+        <v>235</v>
+      </c>
+      <c r="D236" s="23">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B237" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237" s="23">
+        <v>236</v>
+      </c>
+      <c r="D237" s="23">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C238" s="23">
+        <v>237</v>
+      </c>
+      <c r="D238" s="23">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B239" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C239" s="23">
+        <v>238</v>
+      </c>
+      <c r="D239" s="23">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B240" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C240" s="23">
+        <v>239</v>
+      </c>
+      <c r="D240" s="23">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B241" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" s="23">
+        <v>240</v>
+      </c>
+      <c r="D241" s="23">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B242" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C242" s="23">
+        <v>241</v>
+      </c>
+      <c r="D242" s="23">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B243" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C243" s="23">
+        <v>242</v>
+      </c>
+      <c r="D243" s="23">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C244" s="23">
+        <v>243</v>
+      </c>
+      <c r="D244" s="23">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B245" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C245" s="23">
+        <v>244</v>
+      </c>
+      <c r="D245" s="23">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C246" s="23">
+        <v>245</v>
+      </c>
+      <c r="D246" s="23">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B247" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C247" s="23">
+        <v>246</v>
+      </c>
+      <c r="D247" s="23">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B248" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C248" s="23">
+        <v>247</v>
+      </c>
+      <c r="D248" s="23">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B249" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C249" s="23">
+        <v>248</v>
+      </c>
+      <c r="D249" s="23">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B250" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C250" s="23">
+        <v>249</v>
+      </c>
+      <c r="D250" s="23">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B251" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C251" s="23">
+        <v>250</v>
+      </c>
+      <c r="D251" s="23">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C252" s="6">
+        <v>251</v>
+      </c>
+      <c r="D252" s="6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C253" s="6">
+        <v>252</v>
+      </c>
+      <c r="D253" s="6">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C254" s="6">
+        <v>253</v>
+      </c>
+      <c r="D254" s="6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C255" s="6">
+        <v>254</v>
+      </c>
+      <c r="D255" s="6">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" s="6">
+        <v>255</v>
+      </c>
+      <c r="D256" s="6">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="6">
+        <v>256</v>
+      </c>
+      <c r="D257" s="6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C258" s="6">
+        <v>257</v>
+      </c>
+      <c r="D258" s="6">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C259" s="6">
+        <v>258</v>
+      </c>
+      <c r="D259" s="6">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" s="6">
+        <v>259</v>
+      </c>
+      <c r="D260" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C261" s="6">
+        <v>260</v>
+      </c>
+      <c r="D261" s="6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C262" s="6">
+        <v>261</v>
+      </c>
+      <c r="D262" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C263" s="6">
+        <v>262</v>
+      </c>
+      <c r="D263" s="6">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C264" s="6">
+        <v>263</v>
+      </c>
+      <c r="D264" s="6">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C265" s="6">
+        <v>264</v>
+      </c>
+      <c r="D265" s="6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C266" s="6">
+        <v>265</v>
+      </c>
+      <c r="D266" s="6">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C267" s="6">
+        <v>266</v>
+      </c>
+      <c r="D267" s="6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C268" s="6">
+        <v>267</v>
+      </c>
+      <c r="D268" s="6">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B269" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C269" s="30">
+        <v>268</v>
+      </c>
+      <c r="D269" s="30">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B270" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270" s="30">
+        <v>269</v>
+      </c>
+      <c r="D270" s="30">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B271" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C271" s="30">
+        <v>270</v>
+      </c>
+      <c r="D271" s="30">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B272" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C272" s="30">
+        <v>271</v>
+      </c>
+      <c r="D272" s="30">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B273" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C273" s="30">
+        <v>272</v>
+      </c>
+      <c r="D273" s="30">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B274" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C274" s="30">
+        <v>273</v>
+      </c>
+      <c r="D274" s="30">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B275" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C275" s="30">
+        <v>274</v>
+      </c>
+      <c r="D275" s="30">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B276" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C276" s="30">
+        <v>275</v>
+      </c>
+      <c r="D276" s="30">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B277" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" s="30">
+        <v>276</v>
+      </c>
+      <c r="D277" s="30">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C278" s="5">
+        <v>277</v>
+      </c>
+      <c r="D278" s="5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C279" s="5">
+        <v>278</v>
+      </c>
+      <c r="D279" s="5">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C280" s="5">
+        <v>279</v>
+      </c>
+      <c r="D280" s="5">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C281" s="5">
+        <v>280</v>
+      </c>
+      <c r="D281" s="5">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C282" s="5">
+        <v>281</v>
+      </c>
+      <c r="D282" s="5">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C283" s="5">
+        <v>282</v>
+      </c>
+      <c r="D283" s="5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C284" s="5">
+        <v>283</v>
+      </c>
+      <c r="D284" s="5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C285" s="5">
+        <v>284</v>
+      </c>
+      <c r="D285" s="5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" s="5">
+        <v>285</v>
+      </c>
+      <c r="D286" s="5">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="5">
+        <v>286</v>
+      </c>
+      <c r="D287" s="5">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C288" s="5">
+        <v>287</v>
+      </c>
+      <c r="D288" s="5">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C289" s="5">
+        <v>288</v>
+      </c>
+      <c r="D289" s="5">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C290" s="5">
+        <v>289</v>
+      </c>
+      <c r="D290" s="5">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C291" s="5">
+        <v>290</v>
+      </c>
+      <c r="D291" s="5">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B292" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C292" s="40">
+        <v>291</v>
+      </c>
+      <c r="D292" s="40">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B293" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C293" s="40">
+        <v>292</v>
+      </c>
+      <c r="D293" s="40">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B294" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C294" s="40">
+        <v>293</v>
+      </c>
+      <c r="D294" s="40">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B295" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C295" s="40">
+        <v>294</v>
+      </c>
+      <c r="D295" s="40">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B296" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C296" s="40">
+        <v>295</v>
+      </c>
+      <c r="D296" s="40">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B297" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C297" s="40">
+        <v>296</v>
+      </c>
+      <c r="D297" s="40">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B298" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C298" s="40">
+        <v>297</v>
+      </c>
+      <c r="D298" s="40">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B299" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C299" s="40">
+        <v>298</v>
+      </c>
+      <c r="D299" s="40">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B300" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C300" s="40">
+        <v>299</v>
+      </c>
+      <c r="D300" s="40">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DBCCB8-A317-4226-8E7F-F00F83841AB8}">
   <dimension ref="A1:A14"/>
   <sheetViews>
@@ -29580,35 +33856,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D17D-83AB-434D-9E9D-17B67B28C1E7}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA994C8-837F-4DCA-9E14-84473F69D244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38182DF5-6A05-4760-8604-762E468281EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
     <sheet name="Channel Products" sheetId="3" r:id="rId2"/>
     <sheet name="Hotspot Products" sheetId="13" r:id="rId3"/>
-    <sheet name="Slider Options" sheetId="12" r:id="rId4"/>
+    <sheet name="Survey Questions" sheetId="14" r:id="rId4"/>
+    <sheet name="Additional Info Questions" sheetId="15" r:id="rId5"/>
+    <sheet name="Slider Options" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6438" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6592" uniqueCount="321">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -916,6 +918,75 @@
   <si>
     <t>HotSpot</t>
   </si>
+  <si>
+    <t>Hanger Availability</t>
+  </si>
+  <si>
+    <t>Block Home Availability</t>
+  </si>
+  <si>
+    <t>GPS Board Availability</t>
+  </si>
+  <si>
+    <t>Air Visibility Picture</t>
+  </si>
+  <si>
+    <t>H&amp;S Sachets</t>
+  </si>
+  <si>
+    <t>Product Availability</t>
+  </si>
+  <si>
+    <t>Brand Hanger Availability</t>
+  </si>
+  <si>
+    <t>Rod Availability</t>
+  </si>
+  <si>
+    <t>HotSpot Availability</t>
+  </si>
+  <si>
+    <t>Pantene Sachets</t>
+  </si>
+  <si>
+    <t>Ariel Sachets</t>
+  </si>
+  <si>
+    <t>Clear Sachets</t>
+  </si>
+  <si>
+    <t>Sunsilk Sachets</t>
+  </si>
+  <si>
+    <t>Lifebuoy Sachets</t>
+  </si>
+  <si>
+    <t>Surf Sachets</t>
+  </si>
+  <si>
+    <t>Brite Sachets</t>
+  </si>
+  <si>
+    <t>Rin Sachets</t>
+  </si>
+  <si>
+    <t>Bonus Sachets</t>
+  </si>
+  <si>
+    <t>Question Category</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Main Cateogry</t>
+  </si>
+  <si>
+    <t>Overwrite Value</t>
+  </si>
 </sst>
 </file>
 
@@ -962,7 +1033,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,6 +1220,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1206,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1259,6 +1354,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,11 +1779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41012,6 +41113,706 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4BC948-C7B9-4B5F-992F-ECA637348F4E}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEE74-7143-47C9-AB09-333941AD7BD9}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DBCCB8-A317-4226-8E7F-F00F83841AB8}">
   <dimension ref="A1:A14"/>
   <sheetViews>

--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE027A9-AF35-4E71-B291-A6B439FE9FC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D9DDB-0681-430C-986E-48F0B3B8285E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6599" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="330">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -999,6 +999,21 @@
   <si>
     <t>HyperStar</t>
   </si>
+  <si>
+    <t>Take Picture</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No. of Air Hangers Available</t>
+  </si>
+  <si>
+    <t>No. of Facing (1 String)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of Units </t>
+  </si>
 </sst>
 </file>
 
@@ -1045,7 +1060,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,25 +1249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1366,12 +1369,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -41158,662 +41157,1417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4BC948-C7B9-4B5F-992F-ECA637348F4E}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="5" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="F1" s="39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B8" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C8" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B9" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C9" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B10" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C10" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B11" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C11" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B12" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>87</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8">
+        <v>88</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8">
+        <v>89</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C15" s="36" t="s">
         <v>302</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>303</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="F15" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="F16" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="F17" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="36">
+        <v>18</v>
+      </c>
+      <c r="E19" s="36">
+        <v>94</v>
+      </c>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="36">
+        <v>19</v>
+      </c>
+      <c r="E20" s="36">
+        <v>95</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="36">
+        <v>20</v>
+      </c>
+      <c r="E21" s="36">
+        <v>96</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="30">
+        <v>25</v>
+      </c>
+      <c r="E26" s="30">
+        <v>101</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="30">
+        <v>26</v>
+      </c>
+      <c r="E27" s="30">
+        <v>102</v>
+      </c>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="30">
+        <v>27</v>
+      </c>
+      <c r="E28" s="30">
+        <v>103</v>
+      </c>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C29" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>305</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="F29" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="42">
+        <v>32</v>
+      </c>
+      <c r="E33" s="42">
+        <v>108</v>
+      </c>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="42">
+        <v>33</v>
+      </c>
+      <c r="E34" s="42">
+        <v>109</v>
+      </c>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="42">
+        <v>34</v>
+      </c>
+      <c r="E35" s="42">
+        <v>110</v>
+      </c>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="20">
+        <v>39</v>
+      </c>
+      <c r="E40" s="20">
+        <v>115</v>
+      </c>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" s="20">
+        <v>40</v>
+      </c>
+      <c r="E41" s="20">
+        <v>116</v>
+      </c>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" s="20">
+        <v>41</v>
+      </c>
+      <c r="E42" s="20">
+        <v>117</v>
+      </c>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="9">
+        <v>46</v>
+      </c>
+      <c r="E47" s="9">
+        <v>122</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" s="9">
+        <v>47</v>
+      </c>
+      <c r="E48" s="9">
+        <v>123</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49" s="9">
+        <v>48</v>
+      </c>
+      <c r="E49" s="9">
+        <v>124</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C50" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B51" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C51" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B52" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C52" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B53" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C53" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B54" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="23">
+        <v>53</v>
+      </c>
+      <c r="E54" s="23">
+        <v>129</v>
+      </c>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D55" s="23">
+        <v>54</v>
+      </c>
+      <c r="E55" s="23">
+        <v>130</v>
+      </c>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D56" s="23">
+        <v>55</v>
+      </c>
+      <c r="E56" s="23">
+        <v>131</v>
+      </c>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C57" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B58" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C58" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B59" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C59" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B60" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C60" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B61" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="43">
+        <v>60</v>
+      </c>
+      <c r="E61" s="43">
+        <v>136</v>
+      </c>
+      <c r="F61" s="43"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="43">
+        <v>61</v>
+      </c>
+      <c r="E62" s="43">
+        <v>137</v>
+      </c>
+      <c r="F62" s="43"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63" s="43">
+        <v>62</v>
+      </c>
+      <c r="E63" s="43">
+        <v>138</v>
+      </c>
+      <c r="F63" s="43"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C64" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B65" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C65" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B66" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C66" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B67" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C67" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B68" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="42">
+        <v>67</v>
+      </c>
+      <c r="E68" s="42">
+        <v>143</v>
+      </c>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="42">
+        <v>68</v>
+      </c>
+      <c r="E69" s="42">
+        <v>144</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="42">
+        <v>69</v>
+      </c>
+      <c r="E70" s="42">
+        <v>145</v>
+      </c>
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C71" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B72" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C72" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B73" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C73" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B74" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C74" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B75" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" s="21">
+        <v>74</v>
+      </c>
+      <c r="E75" s="21">
+        <v>150</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" s="21">
+        <v>75</v>
+      </c>
+      <c r="E76" s="21">
+        <v>151</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D77" s="21">
+        <v>76</v>
+      </c>
+      <c r="E77" s="21">
+        <v>152</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C78" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B79" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C79" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B80" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C80" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B81" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C81" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="C82" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41860,7 +42614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DBCCB8-A317-4226-8E7F-F00F83841AB8}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>

--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D9DDB-0681-430C-986E-48F0B3B8285E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E42E1-0B29-40F2-85B5-E5767AEA407C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hotspot Products'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -36937,8 +36938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D17D-83AB-434D-9E9D-17B67B28C1E7}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41159,7 +41160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4BC948-C7B9-4B5F-992F-ECA637348F4E}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E42E1-0B29-40F2-85B5-E5767AEA407C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC78222-A469-4789-A386-A96678CC9D42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="355">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -980,9 +980,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Main Cateogry</t>
-  </si>
-  <si>
     <t>Overwrite Value</t>
   </si>
   <si>
@@ -1014,6 +1011,84 @@
   </si>
   <si>
     <t xml:space="preserve">No. of Units </t>
+  </si>
+  <si>
+    <t>Start of Category</t>
+  </si>
+  <si>
+    <t>Pome Tracking</t>
+  </si>
+  <si>
+    <t>Wipes Co-Shelving</t>
+  </si>
+  <si>
+    <t>Hip to eye level</t>
+  </si>
+  <si>
+    <t>Share of Feature</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>No of Feature P&amp;G</t>
+  </si>
+  <si>
+    <t>No of Feature Competition</t>
+  </si>
+  <si>
+    <t>Claim on shelf</t>
+  </si>
+  <si>
+    <t>Premium â€“ ML â€“ Pants - Competition</t>
+  </si>
+  <si>
+    <t>No of Consultants P&amp;G</t>
+  </si>
+  <si>
+    <t>No of Consultants Competition</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>Open Shelving</t>
+  </si>
+  <si>
+    <t>Razors-Carts-Personal Care-Disposable (Vertical)</t>
+  </si>
+  <si>
+    <t>Display (Grooming Center/Block Home)</t>
+  </si>
+  <si>
+    <t>Horizontal Ladder (Fusion-Mach3)</t>
+  </si>
+  <si>
+    <t>Shelf by benefit</t>
+  </si>
+  <si>
+    <t>Shelve By Size</t>
+  </si>
+  <si>
+    <t>Regimen Shelving</t>
+  </si>
+  <si>
+    <t>Shelve by Variant (Vertical)</t>
+  </si>
+  <si>
+    <t>Shelf by Size (horizontal)</t>
+  </si>
+  <si>
+    <t>Liquids Co-Shelf</t>
+  </si>
+  <si>
+    <t>Shelve by Line-up (Horizontal)</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Y/N</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,8 +1335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1313,11 +1394,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1372,6 +1490,24 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,7 +1928,7 @@
   <dimension ref="A1:J1459"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B349" sqref="B349"/>
@@ -7669,7 +7805,7 @@
         <v>75</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -10193,7 +10329,7 @@
         <v>142</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -36938,8 +37074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D17D-83AB-434D-9E9D-17B67B28C1E7}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41158,10 +41294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4BC948-C7B9-4B5F-992F-ECA637348F4E}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41171,10 +41307,10 @@
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="47" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
@@ -41188,29 +41324,35 @@
         <v>317</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="48" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>75</v>
       </c>
@@ -41222,11 +41364,14 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>75</v>
       </c>
@@ -41238,11 +41383,14 @@
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>75</v>
       </c>
@@ -41250,47 +41398,56 @@
         <v>300</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>142</v>
       </c>
@@ -41298,15 +41455,18 @@
         <v>301</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>142</v>
       </c>
@@ -41314,15 +41474,18 @@
         <v>301</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>142</v>
       </c>
@@ -41330,15 +41493,18 @@
         <v>301</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>87</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>142</v>
       </c>
@@ -41346,15 +41512,18 @@
         <v>301</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D11" s="8">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
+        <v>88</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>142</v>
       </c>
@@ -41362,53 +41531,56 @@
         <v>301</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D12" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8">
-        <v>87</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="8">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8">
-        <v>88</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D14" s="8">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8">
-        <v>89</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>142</v>
       </c>
@@ -41416,15 +41588,18 @@
         <v>306</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>142</v>
       </c>
@@ -41432,15 +41607,18 @@
         <v>306</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>142</v>
       </c>
@@ -41448,15 +41626,18 @@
         <v>306</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="36">
+        <v>18</v>
+      </c>
+      <c r="E17" s="36">
+        <v>94</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>142</v>
       </c>
@@ -41464,15 +41645,18 @@
         <v>306</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D18" s="36">
+        <v>19</v>
+      </c>
+      <c r="E18" s="36">
+        <v>95</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>142</v>
       </c>
@@ -41480,53 +41664,56 @@
         <v>306</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D19" s="36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="36">
-        <v>94</v>
-      </c>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="36">
-        <v>19</v>
-      </c>
-      <c r="E20" s="36">
-        <v>95</v>
-      </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D21" s="36">
-        <v>20</v>
-      </c>
-      <c r="E21" s="36">
-        <v>96</v>
-      </c>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>142</v>
       </c>
@@ -41534,15 +41721,18 @@
         <v>307</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>142</v>
       </c>
@@ -41550,15 +41740,18 @@
         <v>307</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>142</v>
       </c>
@@ -41566,15 +41759,18 @@
         <v>307</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="30">
+        <v>25</v>
+      </c>
+      <c r="E24" s="30">
+        <v>101</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>142</v>
       </c>
@@ -41582,15 +41778,18 @@
         <v>307</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D25" s="30">
+        <v>26</v>
+      </c>
+      <c r="E25" s="30">
+        <v>102</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>142</v>
       </c>
@@ -41598,53 +41797,56 @@
         <v>307</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D26" s="30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="30">
-        <v>101</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" s="30">
-        <v>26</v>
-      </c>
-      <c r="E27" s="30">
-        <v>102</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="D28" s="30">
-        <v>27</v>
-      </c>
-      <c r="E28" s="30">
-        <v>103</v>
-      </c>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>142</v>
       </c>
@@ -41652,15 +41854,18 @@
         <v>308</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>142</v>
       </c>
@@ -41668,15 +41873,18 @@
         <v>308</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>142</v>
       </c>
@@ -41684,15 +41892,18 @@
         <v>308</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="42">
+        <v>32</v>
+      </c>
+      <c r="E31" s="42">
+        <v>108</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>142</v>
       </c>
@@ -41700,15 +41911,18 @@
         <v>308</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D32" s="42">
+        <v>33</v>
+      </c>
+      <c r="E32" s="42">
+        <v>109</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>142</v>
       </c>
@@ -41716,53 +41930,56 @@
         <v>308</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D33" s="42">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="42">
-        <v>108</v>
-      </c>
-      <c r="F33" s="42"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" s="42">
-        <v>33</v>
-      </c>
-      <c r="E34" s="42">
-        <v>109</v>
-      </c>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="D35" s="42">
-        <v>34</v>
-      </c>
-      <c r="E35" s="42">
-        <v>110</v>
-      </c>
-      <c r="F35" s="42"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>142</v>
       </c>
@@ -41770,15 +41987,18 @@
         <v>309</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>142</v>
       </c>
@@ -41786,15 +42006,18 @@
         <v>309</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>142</v>
       </c>
@@ -41802,15 +42025,18 @@
         <v>309</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="20">
+        <v>39</v>
+      </c>
+      <c r="E38" s="20">
+        <v>115</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>142</v>
       </c>
@@ -41818,15 +42044,18 @@
         <v>309</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D39" s="20">
+        <v>40</v>
+      </c>
+      <c r="E39" s="20">
+        <v>116</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>142</v>
       </c>
@@ -41834,53 +42063,56 @@
         <v>309</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D40" s="20">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="20">
-        <v>115</v>
-      </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D41" s="20">
-        <v>40</v>
-      </c>
-      <c r="E41" s="20">
-        <v>116</v>
-      </c>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" s="20">
-        <v>41</v>
-      </c>
-      <c r="E42" s="20">
-        <v>117</v>
-      </c>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>142</v>
       </c>
@@ -41888,15 +42120,18 @@
         <v>310</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>142</v>
       </c>
@@ -41904,15 +42139,18 @@
         <v>310</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>142</v>
       </c>
@@ -41920,15 +42158,18 @@
         <v>310</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="9">
+        <v>46</v>
+      </c>
+      <c r="E45" s="9">
+        <v>122</v>
+      </c>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>142</v>
       </c>
@@ -41936,15 +42177,18 @@
         <v>310</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D46" s="9">
+        <v>47</v>
+      </c>
+      <c r="E46" s="9">
+        <v>123</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>142</v>
       </c>
@@ -41952,53 +42196,56 @@
         <v>310</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D47" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47" s="9">
-        <v>122</v>
-      </c>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" s="9">
-        <v>47</v>
-      </c>
-      <c r="E48" s="9">
-        <v>123</v>
-      </c>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D49" s="9">
-        <v>48</v>
-      </c>
-      <c r="E49" s="9">
-        <v>124</v>
-      </c>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>142</v>
       </c>
@@ -42006,15 +42253,18 @@
         <v>311</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
-      <c r="F50" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>142</v>
       </c>
@@ -42022,15 +42272,18 @@
         <v>311</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
-      <c r="F51" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>142</v>
       </c>
@@ -42038,15 +42291,18 @@
         <v>311</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="23">
+        <v>53</v>
+      </c>
+      <c r="E52" s="23">
+        <v>129</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>142</v>
       </c>
@@ -42054,15 +42310,18 @@
         <v>311</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D53" s="23">
+        <v>54</v>
+      </c>
+      <c r="E53" s="23">
+        <v>130</v>
+      </c>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>142</v>
       </c>
@@ -42070,53 +42329,56 @@
         <v>311</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D54" s="23">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E54" s="23">
-        <v>129</v>
-      </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="D55" s="23">
-        <v>54</v>
-      </c>
-      <c r="E55" s="23">
-        <v>130</v>
-      </c>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" s="57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D56" s="23">
-        <v>55</v>
-      </c>
-      <c r="E56" s="23">
-        <v>131</v>
-      </c>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>142</v>
       </c>
@@ -42124,15 +42386,18 @@
         <v>312</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
-      <c r="F57" s="43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>142</v>
       </c>
@@ -42140,15 +42405,18 @@
         <v>312</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
-      <c r="F58" s="43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>142</v>
       </c>
@@ -42156,15 +42424,18 @@
         <v>312</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="43">
+        <v>60</v>
+      </c>
+      <c r="E59" s="43">
+        <v>136</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>142</v>
       </c>
@@ -42172,15 +42443,18 @@
         <v>312</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D60" s="43">
+        <v>61</v>
+      </c>
+      <c r="E60" s="43">
+        <v>137</v>
+      </c>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>142</v>
       </c>
@@ -42188,53 +42462,56 @@
         <v>312</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D61" s="43">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E61" s="43">
-        <v>136</v>
-      </c>
-      <c r="F61" s="43"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="D62" s="43">
-        <v>61</v>
-      </c>
-      <c r="E62" s="43">
-        <v>137</v>
-      </c>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" s="43">
-        <v>62</v>
-      </c>
-      <c r="E63" s="43">
-        <v>138</v>
-      </c>
-      <c r="F63" s="43"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>142</v>
       </c>
@@ -42242,15 +42519,18 @@
         <v>313</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>142</v>
       </c>
@@ -42258,15 +42538,18 @@
         <v>313</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>142</v>
       </c>
@@ -42274,15 +42557,18 @@
         <v>313</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="42">
+        <v>67</v>
+      </c>
+      <c r="E66" s="42">
+        <v>143</v>
+      </c>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>142</v>
       </c>
@@ -42290,15 +42576,18 @@
         <v>313</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D67" s="42">
+        <v>68</v>
+      </c>
+      <c r="E67" s="42">
+        <v>144</v>
+      </c>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>142</v>
       </c>
@@ -42306,53 +42595,56 @@
         <v>313</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D68" s="42">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E68" s="42">
-        <v>143</v>
-      </c>
-      <c r="F68" s="42"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="D69" s="42">
-        <v>68</v>
-      </c>
-      <c r="E69" s="42">
-        <v>144</v>
-      </c>
-      <c r="F69" s="42"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="42">
-        <v>69</v>
-      </c>
-      <c r="E70" s="42">
-        <v>145</v>
-      </c>
-      <c r="F70" s="42"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>142</v>
       </c>
@@ -42360,15 +42652,18 @@
         <v>314</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>142</v>
       </c>
@@ -42376,15 +42671,18 @@
         <v>314</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
-      <c r="F72" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>142</v>
       </c>
@@ -42392,15 +42690,18 @@
         <v>314</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="21">
+        <v>74</v>
+      </c>
+      <c r="E73" s="21">
+        <v>150</v>
+      </c>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>142</v>
       </c>
@@ -42408,15 +42709,18 @@
         <v>314</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D74" s="21">
+        <v>75</v>
+      </c>
+      <c r="E74" s="21">
+        <v>151</v>
+      </c>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>142</v>
       </c>
@@ -42424,53 +42728,56 @@
         <v>314</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D75" s="21">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E75" s="21">
-        <v>150</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D76" s="21">
-        <v>75</v>
-      </c>
-      <c r="E76" s="21">
-        <v>151</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="D77" s="21">
-        <v>76</v>
-      </c>
-      <c r="E77" s="21">
-        <v>152</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>142</v>
       </c>
@@ -42478,92 +42785,34 @@
         <v>39</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
-      <c r="F78" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G78" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="20" t="s">
+      <c r="B79" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20" t="s">
-        <v>326</v>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -42574,40 +42823,5713 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEE74-7143-47C9-AB09-333941AD7BD9}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="44" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="21">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21">
+        <v>305</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="21">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21">
+        <v>306</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="21">
+        <v>10</v>
+      </c>
+      <c r="E11" s="21">
+        <v>309</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="21">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21">
+        <v>310</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="23">
+        <v>16</v>
+      </c>
+      <c r="E17" s="23">
+        <v>315</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="23">
+        <v>17</v>
+      </c>
+      <c r="E18" s="23">
         <v>316</v>
       </c>
-      <c r="D1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E1" t="s">
-        <v>319</v>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="23">
+        <v>21</v>
+      </c>
+      <c r="E22" s="23">
+        <v>320</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="23">
+        <v>22</v>
+      </c>
+      <c r="E23" s="23">
+        <v>321</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="20">
+        <v>29</v>
+      </c>
+      <c r="E30" s="20">
+        <v>328</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="20">
+        <v>30</v>
+      </c>
+      <c r="E31" s="20">
+        <v>329</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="20">
+        <v>32</v>
+      </c>
+      <c r="E33" s="20">
+        <v>331</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" s="20">
+        <v>33</v>
+      </c>
+      <c r="E34" s="20">
+        <v>332</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="9">
+        <v>37</v>
+      </c>
+      <c r="E38" s="9">
+        <v>336</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="9">
+        <v>38</v>
+      </c>
+      <c r="E39" s="9">
+        <v>337</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="9">
+        <v>41</v>
+      </c>
+      <c r="E42" s="9">
+        <v>340</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" s="9">
+        <v>42</v>
+      </c>
+      <c r="E43" s="9">
+        <v>341</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" s="11">
+        <v>47</v>
+      </c>
+      <c r="E48" s="11">
+        <v>346</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="11">
+        <v>48</v>
+      </c>
+      <c r="E49" s="11">
+        <v>347</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="11">
+        <v>50</v>
+      </c>
+      <c r="E51" s="11">
+        <v>349</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" s="11">
+        <v>51</v>
+      </c>
+      <c r="E52" s="11">
+        <v>350</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="29">
+        <v>57</v>
+      </c>
+      <c r="E58" s="29">
+        <v>356</v>
+      </c>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D59" s="29">
+        <v>58</v>
+      </c>
+      <c r="E59" s="29">
+        <v>357</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" s="29">
+        <v>62</v>
+      </c>
+      <c r="E63" s="29">
+        <v>361</v>
+      </c>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D64" s="29">
+        <v>63</v>
+      </c>
+      <c r="E64" s="29">
+        <v>362</v>
+      </c>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="23">
+        <v>69</v>
+      </c>
+      <c r="E70" s="23">
+        <v>368</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D71" s="23">
+        <v>70</v>
+      </c>
+      <c r="E71" s="23">
+        <v>369</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="23">
+        <v>72</v>
+      </c>
+      <c r="E73" s="23">
+        <v>371</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" s="23">
+        <v>73</v>
+      </c>
+      <c r="E74" s="23">
+        <v>372</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="29">
+        <v>81</v>
+      </c>
+      <c r="E82" s="29">
+        <v>380</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="29">
+        <v>82</v>
+      </c>
+      <c r="E83" s="29">
+        <v>381</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" s="29">
+        <v>85</v>
+      </c>
+      <c r="E86" s="29">
+        <v>384</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" s="29">
+        <v>86</v>
+      </c>
+      <c r="E87" s="29">
+        <v>385</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="21">
+        <v>91</v>
+      </c>
+      <c r="E92" s="21">
+        <v>390</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="21">
+        <v>92</v>
+      </c>
+      <c r="E93" s="21">
+        <v>391</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D97" s="21">
+        <v>96</v>
+      </c>
+      <c r="E97" s="21">
+        <v>395</v>
+      </c>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D98" s="21">
+        <v>97</v>
+      </c>
+      <c r="E98" s="21">
+        <v>396</v>
+      </c>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" s="23">
+        <v>104</v>
+      </c>
+      <c r="E105" s="23">
+        <v>403</v>
+      </c>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" s="23">
+        <v>105</v>
+      </c>
+      <c r="E106" s="23">
+        <v>404</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" s="23">
+        <v>107</v>
+      </c>
+      <c r="E108" s="23">
+        <v>406</v>
+      </c>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="23">
+        <v>108</v>
+      </c>
+      <c r="E109" s="23">
+        <v>407</v>
+      </c>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="20">
+        <v>112</v>
+      </c>
+      <c r="E113" s="20">
+        <v>411</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" s="20">
+        <v>113</v>
+      </c>
+      <c r="E114" s="20">
+        <v>412</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D117" s="20">
+        <v>116</v>
+      </c>
+      <c r="E117" s="20">
+        <v>415</v>
+      </c>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D118" s="20">
+        <v>117</v>
+      </c>
+      <c r="E118" s="20">
+        <v>416</v>
+      </c>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="9">
+        <v>122</v>
+      </c>
+      <c r="E123" s="9">
+        <v>421</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" s="9">
+        <v>123</v>
+      </c>
+      <c r="E124" s="9">
+        <v>422</v>
+      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D126" s="9">
+        <v>125</v>
+      </c>
+      <c r="E126" s="9">
+        <v>424</v>
+      </c>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D127" s="9">
+        <v>126</v>
+      </c>
+      <c r="E127" s="9">
+        <v>425</v>
+      </c>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D133" s="11">
+        <v>132</v>
+      </c>
+      <c r="E133" s="11">
+        <v>431</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D134" s="11">
+        <v>133</v>
+      </c>
+      <c r="E134" s="11">
+        <v>432</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D138" s="11">
+        <v>137</v>
+      </c>
+      <c r="E138" s="11">
+        <v>436</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D139" s="11">
+        <v>138</v>
+      </c>
+      <c r="E139" s="11">
+        <v>437</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G141" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G142" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G143" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="G144" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D145" s="33">
+        <v>144</v>
+      </c>
+      <c r="E145" s="33">
+        <v>443</v>
+      </c>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D146" s="33">
+        <v>145</v>
+      </c>
+      <c r="E146" s="33">
+        <v>444</v>
+      </c>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G147" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D148" s="33">
+        <v>147</v>
+      </c>
+      <c r="E148" s="33">
+        <v>446</v>
+      </c>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D149" s="33">
+        <v>148</v>
+      </c>
+      <c r="E149" s="33">
+        <v>447</v>
+      </c>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G150" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G152" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G154" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G155" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G156" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D157" s="29">
+        <v>156</v>
+      </c>
+      <c r="E157" s="29">
+        <v>455</v>
+      </c>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D158" s="29">
+        <v>157</v>
+      </c>
+      <c r="E158" s="29">
+        <v>456</v>
+      </c>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G159" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G160" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D161" s="29">
+        <v>160</v>
+      </c>
+      <c r="E161" s="29">
+        <v>459</v>
+      </c>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D162" s="29">
+        <v>161</v>
+      </c>
+      <c r="E162" s="29">
+        <v>460</v>
+      </c>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D166" s="21">
+        <v>165</v>
+      </c>
+      <c r="E166" s="21">
+        <v>464</v>
+      </c>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D167" s="21">
+        <v>166</v>
+      </c>
+      <c r="E167" s="21">
+        <v>465</v>
+      </c>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D171" s="21">
+        <v>170</v>
+      </c>
+      <c r="E171" s="21">
+        <v>469</v>
+      </c>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D172" s="21">
+        <v>171</v>
+      </c>
+      <c r="E172" s="21">
+        <v>470</v>
+      </c>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G174" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G175" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G176" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G177" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G178" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D179" s="20">
+        <v>178</v>
+      </c>
+      <c r="E179" s="20">
+        <v>477</v>
+      </c>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" s="20">
+        <v>179</v>
+      </c>
+      <c r="E180" s="20">
+        <v>478</v>
+      </c>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G181" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D182" s="20">
+        <v>181</v>
+      </c>
+      <c r="E182" s="20">
+        <v>480</v>
+      </c>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D183" s="20">
+        <v>182</v>
+      </c>
+      <c r="E183" s="20">
+        <v>481</v>
+      </c>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D187" s="9">
+        <v>186</v>
+      </c>
+      <c r="E187" s="9">
+        <v>485</v>
+      </c>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D188" s="9">
+        <v>187</v>
+      </c>
+      <c r="E188" s="9">
+        <v>486</v>
+      </c>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D191" s="9">
+        <v>190</v>
+      </c>
+      <c r="E191" s="9">
+        <v>489</v>
+      </c>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D192" s="9">
+        <v>191</v>
+      </c>
+      <c r="E192" s="9">
+        <v>490</v>
+      </c>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D196" s="23"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D197" s="23">
+        <v>196</v>
+      </c>
+      <c r="E197" s="23">
+        <v>495</v>
+      </c>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D198" s="23">
+        <v>197</v>
+      </c>
+      <c r="E198" s="23">
+        <v>496</v>
+      </c>
+      <c r="F198" s="23"/>
+      <c r="G198" s="23"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G199" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D200" s="23">
+        <v>199</v>
+      </c>
+      <c r="E200" s="23">
+        <v>498</v>
+      </c>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D201" s="23">
+        <v>200</v>
+      </c>
+      <c r="E201" s="23">
+        <v>499</v>
+      </c>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G202" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G203" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D207" s="11">
+        <v>206</v>
+      </c>
+      <c r="E207" s="11">
+        <v>505</v>
+      </c>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D208" s="11">
+        <v>207</v>
+      </c>
+      <c r="E208" s="11">
+        <v>506</v>
+      </c>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G209" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G211" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D212" s="11">
+        <v>211</v>
+      </c>
+      <c r="E212" s="11">
+        <v>510</v>
+      </c>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D213" s="11">
+        <v>212</v>
+      </c>
+      <c r="E213" s="11">
+        <v>511</v>
+      </c>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G214" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G215" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G216" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G217" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G218" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D219" s="20">
+        <v>218</v>
+      </c>
+      <c r="E219" s="20">
+        <v>517</v>
+      </c>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D220" s="20">
+        <v>219</v>
+      </c>
+      <c r="E220" s="20">
+        <v>518</v>
+      </c>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G221" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D222" s="20">
+        <v>221</v>
+      </c>
+      <c r="E222" s="20">
+        <v>520</v>
+      </c>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D223" s="20">
+        <v>222</v>
+      </c>
+      <c r="E223" s="20">
+        <v>521</v>
+      </c>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G224" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G225" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B226" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29"/>
+      <c r="F226" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G226" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B227" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G227" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B228" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
+      <c r="F228" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G228" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B229" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
+      <c r="F229" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G229" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B230" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G230" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D231" s="29">
+        <v>230</v>
+      </c>
+      <c r="E231" s="29">
+        <v>529</v>
+      </c>
+      <c r="F231" s="29"/>
+      <c r="G231" s="29"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D232" s="29">
+        <v>231</v>
+      </c>
+      <c r="E232" s="29">
+        <v>530</v>
+      </c>
+      <c r="F232" s="29"/>
+      <c r="G232" s="29"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C233" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29"/>
+      <c r="F233" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G233" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B234" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C234" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G234" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C235" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D235" s="29">
+        <v>234</v>
+      </c>
+      <c r="E235" s="29">
+        <v>533</v>
+      </c>
+      <c r="F235" s="29"/>
+      <c r="G235" s="29"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B236" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D236" s="29">
+        <v>235</v>
+      </c>
+      <c r="E236" s="29">
+        <v>534</v>
+      </c>
+      <c r="F236" s="29"/>
+      <c r="G236" s="29"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B237" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C237" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G237" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B238" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G238" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B239" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G239" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D240" s="21">
+        <v>239</v>
+      </c>
+      <c r="E240" s="21">
+        <v>538</v>
+      </c>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B241" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D241" s="21">
+        <v>240</v>
+      </c>
+      <c r="E241" s="21">
+        <v>539</v>
+      </c>
+      <c r="F241" s="21"/>
+      <c r="G241" s="21"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B242" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D242" s="21"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G242" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B243" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G243" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B244" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G244" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B245" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D245" s="21">
+        <v>244</v>
+      </c>
+      <c r="E245" s="21">
+        <v>543</v>
+      </c>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B246" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D246" s="21">
+        <v>245</v>
+      </c>
+      <c r="E246" s="21">
+        <v>544</v>
+      </c>
+      <c r="F246" s="21"/>
+      <c r="G246" s="21"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B247" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G247" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B248" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G248" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D249" s="36"/>
+      <c r="E249" s="36"/>
+      <c r="F249" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G249" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B250" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D250" s="36"/>
+      <c r="E250" s="36"/>
+      <c r="F250" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G250" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B251" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D251" s="36"/>
+      <c r="E251" s="36"/>
+      <c r="F251" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G251" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B252" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D252" s="36"/>
+      <c r="E252" s="36"/>
+      <c r="F252" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="G252" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B253" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D253" s="36">
+        <v>252</v>
+      </c>
+      <c r="E253" s="36">
+        <v>551</v>
+      </c>
+      <c r="F253" s="36"/>
+      <c r="G253" s="36"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B254" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D254" s="36">
+        <v>253</v>
+      </c>
+      <c r="E254" s="36">
+        <v>552</v>
+      </c>
+      <c r="F254" s="36"/>
+      <c r="G254" s="36"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B255" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D255" s="36"/>
+      <c r="E255" s="36"/>
+      <c r="F255" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G255" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B256" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D256" s="36">
+        <v>255</v>
+      </c>
+      <c r="E256" s="36">
+        <v>554</v>
+      </c>
+      <c r="F256" s="36"/>
+      <c r="G256" s="36"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B257" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="D257" s="36">
+        <v>256</v>
+      </c>
+      <c r="E257" s="36">
+        <v>555</v>
+      </c>
+      <c r="F257" s="36"/>
+      <c r="G257" s="36"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D258" s="20"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G258" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D259" s="20"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G259" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C260" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D260" s="20"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G260" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D261" s="20">
+        <v>260</v>
+      </c>
+      <c r="E261" s="20">
+        <v>559</v>
+      </c>
+      <c r="F261" s="20"/>
+      <c r="G261" s="20"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B262" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D262" s="20">
+        <v>261</v>
+      </c>
+      <c r="E262" s="20">
+        <v>560</v>
+      </c>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G263" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B264" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C264" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D264" s="20"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G264" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B265" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C265" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D265" s="20">
+        <v>264</v>
+      </c>
+      <c r="E265" s="20">
+        <v>563</v>
+      </c>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C266" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D266" s="20">
+        <v>265</v>
+      </c>
+      <c r="E266" s="20">
+        <v>564</v>
+      </c>
+      <c r="F266" s="20"/>
+      <c r="G266" s="20"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G269" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D271" s="11">
+        <v>270</v>
+      </c>
+      <c r="E271" s="11">
+        <v>569</v>
+      </c>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D272" s="11">
+        <v>271</v>
+      </c>
+      <c r="E272" s="11">
+        <v>570</v>
+      </c>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D274" s="11">
+        <v>273</v>
+      </c>
+      <c r="E274" s="11">
+        <v>572</v>
+      </c>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D275" s="11">
+        <v>274</v>
+      </c>
+      <c r="E275" s="11">
+        <v>573</v>
+      </c>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B278" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C278" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D278" s="29"/>
+      <c r="E278" s="29"/>
+      <c r="F278" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G278" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B279" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C279" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D279" s="29"/>
+      <c r="E279" s="29"/>
+      <c r="F279" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G279" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B280" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D280" s="29"/>
+      <c r="E280" s="29"/>
+      <c r="F280" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G280" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B281" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D281" s="29">
+        <v>280</v>
+      </c>
+      <c r="E281" s="29">
+        <v>579</v>
+      </c>
+      <c r="F281" s="29"/>
+      <c r="G281" s="29"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B282" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C282" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D282" s="29">
+        <v>281</v>
+      </c>
+      <c r="E282" s="29">
+        <v>580</v>
+      </c>
+      <c r="F282" s="29"/>
+      <c r="G282" s="29"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B283" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C283" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D283" s="29"/>
+      <c r="E283" s="29"/>
+      <c r="F283" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G283" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B284" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D284" s="29"/>
+      <c r="E284" s="29"/>
+      <c r="F284" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G284" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B285" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D285" s="29"/>
+      <c r="E285" s="29"/>
+      <c r="F285" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G285" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B286" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D286" s="29">
+        <v>285</v>
+      </c>
+      <c r="E286" s="29">
+        <v>584</v>
+      </c>
+      <c r="F286" s="29"/>
+      <c r="G286" s="29"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C287" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D287" s="29">
+        <v>286</v>
+      </c>
+      <c r="E287" s="29">
+        <v>585</v>
+      </c>
+      <c r="F287" s="29"/>
+      <c r="G287" s="29"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B288" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C288" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D288" s="29"/>
+      <c r="E288" s="29"/>
+      <c r="F288" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G288" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B289" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C289" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D289" s="23"/>
+      <c r="E289" s="23"/>
+      <c r="F289" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G289" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B290" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D290" s="23"/>
+      <c r="E290" s="23"/>
+      <c r="F290" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G290" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B291" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C291" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D291" s="23"/>
+      <c r="E291" s="23"/>
+      <c r="F291" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G291" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C292" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D292" s="23"/>
+      <c r="E292" s="23"/>
+      <c r="F292" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G292" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D293" s="23">
+        <v>292</v>
+      </c>
+      <c r="E293" s="23">
+        <v>591</v>
+      </c>
+      <c r="F293" s="23"/>
+      <c r="G293" s="23"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C294" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D294" s="23">
+        <v>293</v>
+      </c>
+      <c r="E294" s="23">
+        <v>592</v>
+      </c>
+      <c r="F294" s="23"/>
+      <c r="G294" s="23"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B295" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C295" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D295" s="23"/>
+      <c r="E295" s="23"/>
+      <c r="F295" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G295" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B296" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C296" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D296" s="23">
+        <v>295</v>
+      </c>
+      <c r="E296" s="23">
+        <v>594</v>
+      </c>
+      <c r="F296" s="23"/>
+      <c r="G296" s="23"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C297" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D297" s="23">
+        <v>296</v>
+      </c>
+      <c r="E297" s="23">
+        <v>595</v>
+      </c>
+      <c r="F297" s="23"/>
+      <c r="G297" s="23"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C298" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D298" s="23"/>
+      <c r="E298" s="23"/>
+      <c r="F298" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G298" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B299" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C299" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D299" s="23"/>
+      <c r="E299" s="23"/>
+      <c r="F299" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G299" s="23" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42677,12 +48599,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -42692,7 +48614,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -42702,7 +48624,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC78222-A469-4789-A386-A96678CC9D42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38361F78-D65C-4E19-8489-71E2E4B27CC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Slider Options" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Additional Info Questions'!$A$1:$I$299</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hotspot Products'!$A$1:$D$1</definedName>
   </definedNames>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="356">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -1090,6 +1091,9 @@
   <si>
     <t>Y/N</t>
   </si>
+  <si>
+    <t>Premium - ML - Pants - Competition</t>
+  </si>
 </sst>
 </file>
 
@@ -42823,10 +42827,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEE74-7143-47C9-AB09-333941AD7BD9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42865,7 +42870,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>207</v>
       </c>
@@ -42884,7 +42889,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>207</v>
       </c>
@@ -42903,7 +42908,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>207</v>
       </c>
@@ -42922,7 +42927,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>207</v>
       </c>
@@ -42941,7 +42946,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>207</v>
       </c>
@@ -42960,7 +42965,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>207</v>
       </c>
@@ -42979,7 +42984,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>207</v>
       </c>
@@ -42998,7 +43003,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>207</v>
       </c>
@@ -43017,7 +43022,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>207</v>
       </c>
@@ -43036,7 +43041,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>207</v>
       </c>
@@ -43055,7 +43060,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>207</v>
       </c>
@@ -43074,7 +43079,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>207</v>
       </c>
@@ -43093,7 +43098,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>207</v>
       </c>
@@ -43112,7 +43117,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>207</v>
       </c>
@@ -43131,7 +43136,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>207</v>
       </c>
@@ -43150,7 +43155,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>207</v>
       </c>
@@ -43169,7 +43174,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>207</v>
       </c>
@@ -43188,7 +43193,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>207</v>
       </c>
@@ -43207,7 +43212,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>207</v>
       </c>
@@ -43226,7 +43231,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>207</v>
       </c>
@@ -43245,7 +43250,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>207</v>
       </c>
@@ -43264,7 +43269,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>207</v>
       </c>
@@ -43283,7 +43288,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>207</v>
       </c>
@@ -43302,7 +43307,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>207</v>
       </c>
@@ -43321,7 +43326,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>207</v>
       </c>
@@ -43340,7 +43345,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>207</v>
       </c>
@@ -43359,7 +43364,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>207</v>
       </c>
@@ -43378,7 +43383,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>207</v>
       </c>
@@ -43397,7 +43402,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>207</v>
       </c>
@@ -43416,7 +43421,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>207</v>
       </c>
@@ -43435,7 +43440,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>207</v>
       </c>
@@ -43454,7 +43459,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>207</v>
       </c>
@@ -43473,7 +43478,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>207</v>
       </c>
@@ -43492,7 +43497,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>207</v>
       </c>
@@ -43511,7 +43516,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>207</v>
       </c>
@@ -43530,7 +43535,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>207</v>
       </c>
@@ -43549,7 +43554,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>207</v>
       </c>
@@ -43568,7 +43573,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>207</v>
       </c>
@@ -43587,7 +43592,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>207</v>
       </c>
@@ -43606,7 +43611,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>207</v>
       </c>
@@ -43625,7 +43630,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>207</v>
       </c>
@@ -43644,7 +43649,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>207</v>
       </c>
@@ -43663,7 +43668,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>207</v>
       </c>
@@ -43682,7 +43687,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>207</v>
       </c>
@@ -43701,7 +43706,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>207</v>
       </c>
@@ -43720,7 +43725,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>207</v>
       </c>
@@ -43739,7 +43744,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>207</v>
       </c>
@@ -43758,7 +43763,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>207</v>
       </c>
@@ -43777,7 +43782,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>207</v>
       </c>
@@ -43796,7 +43801,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>207</v>
       </c>
@@ -43815,7 +43820,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>207</v>
       </c>
@@ -43834,7 +43839,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>207</v>
       </c>
@@ -43853,7 +43858,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>207</v>
       </c>
@@ -43872,7 +43877,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>207</v>
       </c>
@@ -43891,7 +43896,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>207</v>
       </c>
@@ -43910,7 +43915,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>207</v>
       </c>
@@ -43929,7 +43934,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>207</v>
       </c>
@@ -43948,7 +43953,7 @@
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>207</v>
       </c>
@@ -43967,7 +43972,7 @@
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>207</v>
       </c>
@@ -43986,7 +43991,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>207</v>
       </c>
@@ -44005,7 +44010,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>207</v>
       </c>
@@ -44024,7 +44029,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>207</v>
       </c>
@@ -44043,7 +44048,7 @@
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>207</v>
       </c>
@@ -44062,7 +44067,7 @@
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>207</v>
       </c>
@@ -44081,7 +44086,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>207</v>
       </c>
@@ -44100,7 +44105,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>207</v>
       </c>
@@ -44119,7 +44124,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>207</v>
       </c>
@@ -44138,7 +44143,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>207</v>
       </c>
@@ -44157,7 +44162,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>207</v>
       </c>
@@ -44176,7 +44181,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>207</v>
       </c>
@@ -44195,7 +44200,7 @@
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>207</v>
       </c>
@@ -44214,7 +44219,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>207</v>
       </c>
@@ -44233,7 +44238,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>207</v>
       </c>
@@ -44252,7 +44257,7 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>207</v>
       </c>
@@ -44271,7 +44276,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>207</v>
       </c>
@@ -44450,7 +44455,7 @@
         <v>76</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
@@ -45715,7 +45720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>199</v>
       </c>
@@ -45734,7 +45739,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>199</v>
       </c>
@@ -45753,7 +45758,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>199</v>
       </c>
@@ -45772,7 +45777,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>199</v>
       </c>
@@ -45791,7 +45796,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>199</v>
       </c>
@@ -45810,7 +45815,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>199</v>
       </c>
@@ -45829,7 +45834,7 @@
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>199</v>
       </c>
@@ -45848,7 +45853,7 @@
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>199</v>
       </c>
@@ -45867,7 +45872,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>199</v>
       </c>
@@ -45886,7 +45891,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>199</v>
       </c>
@@ -45905,7 +45910,7 @@
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>199</v>
       </c>
@@ -45924,7 +45929,7 @@
       <c r="F162" s="29"/>
       <c r="G162" s="29"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>199</v>
       </c>
@@ -45943,7 +45948,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>199</v>
       </c>
@@ -45962,7 +45967,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>199</v>
       </c>
@@ -45981,7 +45986,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>199</v>
       </c>
@@ -46000,7 +46005,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>199</v>
       </c>
@@ -46019,7 +46024,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>199</v>
       </c>
@@ -46038,7 +46043,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>199</v>
       </c>
@@ -46057,7 +46062,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>199</v>
       </c>
@@ -46076,7 +46081,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>199</v>
       </c>
@@ -46095,7 +46100,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>199</v>
       </c>
@@ -46114,7 +46119,7 @@
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>199</v>
       </c>
@@ -46133,7 +46138,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>199</v>
       </c>
@@ -46152,7 +46157,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>199</v>
       </c>
@@ -46171,7 +46176,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>199</v>
       </c>
@@ -46190,7 +46195,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>199</v>
       </c>
@@ -46209,7 +46214,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>199</v>
       </c>
@@ -46228,7 +46233,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>199</v>
       </c>
@@ -46247,7 +46252,7 @@
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>199</v>
       </c>
@@ -46266,7 +46271,7 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>199</v>
       </c>
@@ -46285,7 +46290,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>199</v>
       </c>
@@ -46304,7 +46309,7 @@
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>199</v>
       </c>
@@ -46323,7 +46328,7 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>199</v>
       </c>
@@ -46342,7 +46347,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>199</v>
       </c>
@@ -46361,7 +46366,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>199</v>
       </c>
@@ -46380,7 +46385,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>199</v>
       </c>
@@ -46399,7 +46404,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>199</v>
       </c>
@@ -46418,7 +46423,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>199</v>
       </c>
@@ -46437,7 +46442,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>199</v>
       </c>
@@ -46456,7 +46461,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>199</v>
       </c>
@@ -46475,7 +46480,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>199</v>
       </c>
@@ -46494,7 +46499,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>199</v>
       </c>
@@ -46513,7 +46518,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>199</v>
       </c>
@@ -46532,7 +46537,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>199</v>
       </c>
@@ -46551,7 +46556,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>199</v>
       </c>
@@ -46570,7 +46575,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>199</v>
       </c>
@@ -46589,7 +46594,7 @@
       <c r="F197" s="23"/>
       <c r="G197" s="23"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>199</v>
       </c>
@@ -46608,7 +46613,7 @@
       <c r="F198" s="23"/>
       <c r="G198" s="23"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>199</v>
       </c>
@@ -46627,7 +46632,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>199</v>
       </c>
@@ -46646,7 +46651,7 @@
       <c r="F200" s="23"/>
       <c r="G200" s="23"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>199</v>
       </c>
@@ -46665,7 +46670,7 @@
       <c r="F201" s="23"/>
       <c r="G201" s="23"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>199</v>
       </c>
@@ -46684,7 +46689,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>199</v>
       </c>
@@ -46703,7 +46708,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>199</v>
       </c>
@@ -46722,7 +46727,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>199</v>
       </c>
@@ -46741,7 +46746,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>199</v>
       </c>
@@ -46760,7 +46765,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>199</v>
       </c>
@@ -46779,7 +46784,7 @@
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>199</v>
       </c>
@@ -46798,7 +46803,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>199</v>
       </c>
@@ -46817,7 +46822,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>199</v>
       </c>
@@ -46836,7 +46841,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>199</v>
       </c>
@@ -46855,7 +46860,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>199</v>
       </c>
@@ -46874,7 +46879,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>199</v>
       </c>
@@ -46893,7 +46898,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>199</v>
       </c>
@@ -46912,7 +46917,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>199</v>
       </c>
@@ -46931,7 +46936,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>199</v>
       </c>
@@ -46950,7 +46955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>199</v>
       </c>
@@ -46969,7 +46974,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>199</v>
       </c>
@@ -46988,7 +46993,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>199</v>
       </c>
@@ -47007,7 +47012,7 @@
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>199</v>
       </c>
@@ -47026,7 +47031,7 @@
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>199</v>
       </c>
@@ -47045,7 +47050,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>199</v>
       </c>
@@ -47064,7 +47069,7 @@
       <c r="F222" s="20"/>
       <c r="G222" s="20"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>199</v>
       </c>
@@ -47083,7 +47088,7 @@
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>199</v>
       </c>
@@ -47102,7 +47107,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>199</v>
       </c>
@@ -47121,7 +47126,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
         <v>203</v>
       </c>
@@ -47140,7 +47145,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20" t="s">
         <v>203</v>
       </c>
@@ -47159,7 +47164,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
         <v>203</v>
       </c>
@@ -47178,7 +47183,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20" t="s">
         <v>203</v>
       </c>
@@ -47197,7 +47202,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
         <v>203</v>
       </c>
@@ -47216,7 +47221,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20" t="s">
         <v>203</v>
       </c>
@@ -47235,7 +47240,7 @@
       <c r="F231" s="29"/>
       <c r="G231" s="29"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20" t="s">
         <v>203</v>
       </c>
@@ -47254,7 +47259,7 @@
       <c r="F232" s="29"/>
       <c r="G232" s="29"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20" t="s">
         <v>203</v>
       </c>
@@ -47273,7 +47278,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
         <v>203</v>
       </c>
@@ -47292,7 +47297,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
         <v>203</v>
       </c>
@@ -47311,7 +47316,7 @@
       <c r="F235" s="29"/>
       <c r="G235" s="29"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
         <v>203</v>
       </c>
@@ -47330,7 +47335,7 @@
       <c r="F236" s="29"/>
       <c r="G236" s="29"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
         <v>203</v>
       </c>
@@ -47349,7 +47354,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20" t="s">
         <v>203</v>
       </c>
@@ -47368,7 +47373,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
         <v>203</v>
       </c>
@@ -47387,7 +47392,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
         <v>203</v>
       </c>
@@ -47406,7 +47411,7 @@
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
         <v>203</v>
       </c>
@@ -47425,7 +47430,7 @@
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20" t="s">
         <v>203</v>
       </c>
@@ -47444,7 +47449,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20" t="s">
         <v>203</v>
       </c>
@@ -47463,7 +47468,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20" t="s">
         <v>203</v>
       </c>
@@ -47482,7 +47487,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20" t="s">
         <v>203</v>
       </c>
@@ -47501,7 +47506,7 @@
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20" t="s">
         <v>203</v>
       </c>
@@ -47520,7 +47525,7 @@
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20" t="s">
         <v>203</v>
       </c>
@@ -47539,7 +47544,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20" t="s">
         <v>203</v>
       </c>
@@ -47558,7 +47563,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20" t="s">
         <v>203</v>
       </c>
@@ -47577,7 +47582,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20" t="s">
         <v>203</v>
       </c>
@@ -47596,7 +47601,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20" t="s">
         <v>203</v>
       </c>
@@ -47615,7 +47620,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20" t="s">
         <v>203</v>
       </c>
@@ -47634,7 +47639,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20" t="s">
         <v>203</v>
       </c>
@@ -47653,7 +47658,7 @@
       <c r="F253" s="36"/>
       <c r="G253" s="36"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20" t="s">
         <v>203</v>
       </c>
@@ -47672,7 +47677,7 @@
       <c r="F254" s="36"/>
       <c r="G254" s="36"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20" t="s">
         <v>203</v>
       </c>
@@ -47691,7 +47696,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
         <v>203</v>
       </c>
@@ -47710,7 +47715,7 @@
       <c r="F256" s="36"/>
       <c r="G256" s="36"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20" t="s">
         <v>203</v>
       </c>
@@ -47729,7 +47734,7 @@
       <c r="F257" s="36"/>
       <c r="G257" s="36"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
         <v>203</v>
       </c>
@@ -47748,7 +47753,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
         <v>203</v>
       </c>
@@ -47767,7 +47772,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
         <v>203</v>
       </c>
@@ -47786,7 +47791,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
         <v>203</v>
       </c>
@@ -47805,7 +47810,7 @@
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20" t="s">
         <v>203</v>
       </c>
@@ -47824,7 +47829,7 @@
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20" t="s">
         <v>203</v>
       </c>
@@ -47843,7 +47848,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20" t="s">
         <v>203</v>
       </c>
@@ -47862,7 +47867,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
         <v>203</v>
       </c>
@@ -47881,7 +47886,7 @@
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
         <v>203</v>
       </c>
@@ -47900,7 +47905,7 @@
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
         <v>203</v>
       </c>
@@ -47919,7 +47924,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
         <v>203</v>
       </c>
@@ -47938,7 +47943,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
         <v>203</v>
       </c>
@@ -47957,7 +47962,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
         <v>203</v>
       </c>
@@ -47976,7 +47981,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20" t="s">
         <v>203</v>
       </c>
@@ -47995,7 +48000,7 @@
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20" t="s">
         <v>203</v>
       </c>
@@ -48014,7 +48019,7 @@
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20" t="s">
         <v>203</v>
       </c>
@@ -48033,7 +48038,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20" t="s">
         <v>203</v>
       </c>
@@ -48052,7 +48057,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20" t="s">
         <v>203</v>
       </c>
@@ -48071,7 +48076,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20" t="s">
         <v>203</v>
       </c>
@@ -48090,7 +48095,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20" t="s">
         <v>203</v>
       </c>
@@ -48109,7 +48114,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20" t="s">
         <v>203</v>
       </c>
@@ -48128,7 +48133,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20" t="s">
         <v>203</v>
       </c>
@@ -48147,7 +48152,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20" t="s">
         <v>203</v>
       </c>
@@ -48166,7 +48171,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20" t="s">
         <v>203</v>
       </c>
@@ -48185,7 +48190,7 @@
       <c r="F281" s="29"/>
       <c r="G281" s="29"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="s">
         <v>203</v>
       </c>
@@ -48204,7 +48209,7 @@
       <c r="F282" s="29"/>
       <c r="G282" s="29"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20" t="s">
         <v>203</v>
       </c>
@@ -48223,7 +48228,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20" t="s">
         <v>203</v>
       </c>
@@ -48242,7 +48247,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20" t="s">
         <v>203</v>
       </c>
@@ -48261,7 +48266,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20" t="s">
         <v>203</v>
       </c>
@@ -48280,7 +48285,7 @@
       <c r="F286" s="29"/>
       <c r="G286" s="29"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="s">
         <v>203</v>
       </c>
@@ -48299,7 +48304,7 @@
       <c r="F287" s="29"/>
       <c r="G287" s="29"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20" t="s">
         <v>203</v>
       </c>
@@ -48318,7 +48323,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20" t="s">
         <v>203</v>
       </c>
@@ -48337,7 +48342,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20" t="s">
         <v>203</v>
       </c>
@@ -48356,7 +48361,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20" t="s">
         <v>203</v>
       </c>
@@ -48375,7 +48380,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20" t="s">
         <v>203</v>
       </c>
@@ -48394,7 +48399,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20" t="s">
         <v>203</v>
       </c>
@@ -48413,7 +48418,7 @@
       <c r="F293" s="23"/>
       <c r="G293" s="23"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="20" t="s">
         <v>203</v>
       </c>
@@ -48432,7 +48437,7 @@
       <c r="F294" s="23"/>
       <c r="G294" s="23"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20" t="s">
         <v>203</v>
       </c>
@@ -48451,7 +48456,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20" t="s">
         <v>203</v>
       </c>
@@ -48470,7 +48475,7 @@
       <c r="F296" s="23"/>
       <c r="G296" s="23"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20" t="s">
         <v>203</v>
       </c>
@@ -48489,7 +48494,7 @@
       <c r="F297" s="23"/>
       <c r="G297" s="23"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20" t="s">
         <v>203</v>
       </c>
@@ -48508,7 +48513,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20" t="s">
         <v>203</v>
       </c>
@@ -48528,6 +48533,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I299" xr:uid="{110B696F-294B-4192-B265-AD4E80324337}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MM1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38361F78-D65C-4E19-8489-71E2E4B27CC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E10B70-3A8C-410A-A73E-E5FC098AC36B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Survey Questions" sheetId="14" r:id="rId4"/>
     <sheet name="Additional Info Questions" sheetId="15" r:id="rId5"/>
     <sheet name="Slider Options" sheetId="12" r:id="rId6"/>
+    <sheet name="Shop Actions" sheetId="16" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Additional Info Questions'!$A$1:$I$299</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="361">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -1094,6 +1095,21 @@
   <si>
     <t>Premium - ML - Pants - Competition</t>
   </si>
+  <si>
+    <t>Shop Actions</t>
+  </si>
+  <si>
+    <t>Start Working</t>
+  </si>
+  <si>
+    <t>Shop Fascia</t>
+  </si>
+  <si>
+    <t>Get Direction</t>
+  </si>
+  <si>
+    <t>Get Routes</t>
+  </si>
 </sst>
 </file>
 
@@ -42830,7 +42846,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
@@ -48647,4 +48663,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E3B824-4BEC-4662-A3C1-1778492C15C1}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FF78E-9E73-4400-904F-2DAAF9380235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0EAAC5-9BA0-413E-A5FB-C67F2C6AF490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1166,7 +1166,7 @@
     <t>Shop To Be Removed</t>
   </si>
   <si>
-    <t>Shopkeeper did not allow</t>
+    <t>Retailer did not allow</t>
   </si>
 </sst>
 </file>
@@ -31741,7 +31741,7 @@
   <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46049,7 +46049,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PnG_Merchandising/PnG_Merchandising.xlsx
+++ b/PnG_Merchandising/PnG_Merchandising.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF11171-12FA-41D8-82DD-561FC7029F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30561E2-8863-44D5-B0DE-E32A82FD8543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Slider Options" sheetId="12" r:id="rId7"/>
     <sheet name="Shop Actions" sheetId="16" r:id="rId8"/>
     <sheet name="Shop Remarks" sheetId="20" r:id="rId9"/>
+    <sheet name="Score Card" sheetId="22" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Additional Info Questions'!$A$1:$G$485</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9469" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="337">
   <si>
     <t>Distribution Point Items</t>
   </si>
@@ -1028,6 +1029,18 @@
   <si>
     <t>Market Intelligence</t>
   </si>
+  <si>
+    <t>Score Card</t>
+  </si>
+  <si>
+    <t>In Store Execution Score</t>
+  </si>
+  <si>
+    <t>Productivity Visit Based</t>
+  </si>
+  <si>
+    <t>Productivity Unique Based</t>
+  </si>
 </sst>
 </file>
 
@@ -1711,11 +1724,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B5A9F8-E732-454C-B4D1-4FB4F54F61A6}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D31BC-5262-45FD-B95A-C4E657F89345}">
   <dimension ref="A1:J1487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E1470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
